--- a/ABAP.xlsx
+++ b/ABAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qweas\OneDrive\デスクトップ\work\面接\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526A2432-70B4-486D-8C42-EE4C43538467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977515B7-398C-4353-8DAD-443A6BA75B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/ABAP.xlsx
+++ b/ABAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qweas\OneDrive\デスクトップ\work\面接\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977515B7-398C-4353-8DAD-443A6BA75B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3728BFCF-1ED3-4785-9874-DB7F5D32A62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P82" sqref="O81:P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
